--- a/Jogos_do_Dia/2023-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>League</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Brazil Catarinense 1</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
     <t>Independiente Juniors</t>
   </si>
   <si>
@@ -166,51 +163,24 @@
     <t>Millonarios</t>
   </si>
   <si>
+    <t>Grafičar</t>
+  </si>
+  <si>
+    <t>Novi Sad</t>
+  </si>
+  <si>
+    <t>Zlatibor Čajetina</t>
+  </si>
+  <si>
+    <t>Železničar Pančevo</t>
+  </si>
+  <si>
     <t>Jedinstvo Ub</t>
   </si>
   <si>
-    <t>Zlatibor Čajetina</t>
-  </si>
-  <si>
-    <t>Železničar Pančevo</t>
-  </si>
-  <si>
-    <t>Grafičar</t>
-  </si>
-  <si>
-    <t>Novi Sad</t>
-  </si>
-  <si>
     <t>Brusque</t>
   </si>
   <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
-    <t>Brown de Adrogué</t>
-  </si>
-  <si>
-    <t>Quilmes</t>
-  </si>
-  <si>
-    <t>Gimnasia Jujuy</t>
-  </si>
-  <si>
-    <t>Ferro Carril Oeste</t>
-  </si>
-  <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
-    <t>Racing Córdoba</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Tristán Suárez</t>
-  </si>
-  <si>
     <t>La Equidad</t>
   </si>
   <si>
@@ -250,49 +220,22 @@
     <t>Deportivo Pasto</t>
   </si>
   <si>
+    <t>OFK Vršac</t>
+  </si>
+  <si>
+    <t>Inđija</t>
+  </si>
+  <si>
+    <t>Metalac GM</t>
+  </si>
+  <si>
+    <t>Radnički Sr. Mitrovica</t>
+  </si>
+  <si>
     <t>Sloboda Užice</t>
   </si>
   <si>
-    <t>Metalac GM</t>
-  </si>
-  <si>
-    <t>Radnički Sr. Mitrovica</t>
-  </si>
-  <si>
-    <t>OFK Vršac</t>
-  </si>
-  <si>
-    <t>Inđija</t>
-  </si>
-  <si>
     <t>Concórdia AC</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
-  </si>
-  <si>
-    <t>Atlético Rafaela</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
-  </si>
-  <si>
-    <t>Villa Dálmine</t>
-  </si>
-  <si>
-    <t>Deportivo Maipú</t>
-  </si>
-  <si>
-    <t>Independiente Rivadavia</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
-  </si>
-  <si>
-    <t>Club Atlético Mitre</t>
-  </si>
-  <si>
-    <t>Chacarita Juniors</t>
   </si>
   <si>
     <t>Boyacá Chicó</t>
@@ -663,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,19 +727,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G2">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="H2">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
         <v>1.07</v>
@@ -814,7 +757,7 @@
         <v>2.17</v>
       </c>
       <c r="N2">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="O2">
         <v>1.44</v>
@@ -823,7 +766,7 @@
         <v>2.6</v>
       </c>
       <c r="Q2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R2">
         <v>1.78</v>
@@ -838,7 +781,7 @@
         <v>1.68</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -888,64 +831,64 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="V3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="W3">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="X3">
         <v>1.56</v>
@@ -972,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -992,64 +935,64 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V4">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="W4">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="X4">
         <v>2.32</v>
@@ -1073,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1096,19 +1039,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="G5">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5.32</v>
       </c>
       <c r="I5">
         <v>1.02</v>
@@ -1123,10 +1066,10 @@
         <v>2.8</v>
       </c>
       <c r="M5">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N5">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
         <v>1.48</v>
@@ -1135,10 +1078,10 @@
         <v>2.59</v>
       </c>
       <c r="Q5">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R5">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S5">
         <v>1.17</v>
@@ -1150,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="W5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X5">
         <v>1.88</v>
@@ -1177,16 +1120,16 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1200,64 +1143,64 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="V6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="X6">
         <v>1.64</v>
@@ -1284,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1304,64 +1247,64 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
         <v>1.25</v>
@@ -1385,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1408,64 +1351,64 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="W8">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="X8">
         <v>1.36</v>
@@ -1489,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1512,64 +1455,64 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>4.7</v>
+        <v>4.94</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H9">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="N9">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W9">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="X9">
         <v>1.82</v>
@@ -1593,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1616,64 +1559,64 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="V10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="W10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>1.46</v>
@@ -1697,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1720,19 +1663,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G11">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="H11">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="I11">
         <v>1.1</v>
@@ -1747,7 +1690,7 @@
         <v>2.75</v>
       </c>
       <c r="M11">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="N11">
         <v>1.6</v>
@@ -1774,10 +1717,10 @@
         <v>1.8</v>
       </c>
       <c r="V11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="W11">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="X11">
         <v>1.6</v>
@@ -1824,73 +1767,73 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="W12">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="Y12">
         <v>1.35</v>
       </c>
       <c r="Z12">
-        <v>2.95</v>
+        <v>3.41</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1928,73 +1871,73 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>0.5</v>
+        <v>1.58</v>
       </c>
       <c r="X13">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Y13">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="Z13">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -2032,73 +1975,73 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V14">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
-        <v>2.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y14">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="Z14">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2136,73 +2079,73 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V15">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="W15">
         <v>0.75</v>
       </c>
       <c r="X15">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="Y15">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="Z15">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2240,73 +2183,73 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W16">
-        <v>1.58</v>
+        <v>0.83</v>
       </c>
       <c r="X16">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y16">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="Z16">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2344,58 +2287,58 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V17">
         <v>1.67</v>
@@ -2428,197 +2371,197 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>45008.83333333334</v>
       </c>
       <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>2.46</v>
+      </c>
+      <c r="G18">
+        <v>2.71</v>
+      </c>
+      <c r="H18">
+        <v>2.75</v>
+      </c>
+      <c r="I18">
+        <v>1.1</v>
+      </c>
+      <c r="J18">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="W18">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="Y18">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="Z18">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>45008.83333333334</v>
+        <v>45008.875</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V19">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2647,82 +2590,82 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
-        <v>45008.83333333334</v>
+        <v>45008.875</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="W20">
         <v>1.33</v>
       </c>
       <c r="X20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Y20">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="Z20">
-        <v>3.17</v>
+        <v>2.87</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2746,942 +2689,6 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>1.5</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y21">
-        <v>1.27</v>
-      </c>
-      <c r="Z21">
-        <v>2.08</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0.33</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1.46</v>
-      </c>
-      <c r="Y22">
-        <v>1.48</v>
-      </c>
-      <c r="Z22">
-        <v>2.94</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <v>1.8</v>
-      </c>
-      <c r="Y23">
-        <v>1.54</v>
-      </c>
-      <c r="Z23">
-        <v>3.34</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1.79</v>
-      </c>
-      <c r="Y24">
-        <v>1.18</v>
-      </c>
-      <c r="Z24">
-        <v>2.97</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>1.67</v>
-      </c>
-      <c r="W25">
-        <v>0.5</v>
-      </c>
-      <c r="X25">
-        <v>1.46</v>
-      </c>
-      <c r="Y25">
-        <v>1.68</v>
-      </c>
-      <c r="Z25">
-        <v>3.14</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1.67</v>
-      </c>
-      <c r="X26">
-        <v>2.4</v>
-      </c>
-      <c r="Y26">
-        <v>1.4</v>
-      </c>
-      <c r="Z26">
-        <v>3.8</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45008.83333333334</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27">
-        <v>2.52</v>
-      </c>
-      <c r="G27">
-        <v>3.18</v>
-      </c>
-      <c r="H27">
-        <v>2.89</v>
-      </c>
-      <c r="I27">
-        <v>1.1</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>1.4</v>
-      </c>
-      <c r="L27">
-        <v>2.7</v>
-      </c>
-      <c r="M27">
-        <v>2.21</v>
-      </c>
-      <c r="N27">
-        <v>1.57</v>
-      </c>
-      <c r="O27">
-        <v>1.45</v>
-      </c>
-      <c r="P27">
-        <v>2.63</v>
-      </c>
-      <c r="Q27">
-        <v>1.91</v>
-      </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>1.38</v>
-      </c>
-      <c r="T27">
-        <v>1.43</v>
-      </c>
-      <c r="U27">
-        <v>1.5</v>
-      </c>
-      <c r="V27">
-        <v>1.25</v>
-      </c>
-      <c r="W27">
-        <v>1.5</v>
-      </c>
-      <c r="X27">
-        <v>1.81</v>
-      </c>
-      <c r="Y27">
-        <v>1.11</v>
-      </c>
-      <c r="Z27">
-        <v>2.92</v>
-      </c>
-      <c r="AA27">
-        <v>1.59</v>
-      </c>
-      <c r="AB27">
-        <v>8</v>
-      </c>
-      <c r="AC27">
-        <v>2.9</v>
-      </c>
-      <c r="AD27">
-        <v>1.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.92</v>
-      </c>
-      <c r="AF27">
-        <v>2.6</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45008.875</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45008.875</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>1.67</v>
-      </c>
-      <c r="W29">
-        <v>1.33</v>
-      </c>
-      <c r="X29">
-        <v>1.62</v>
-      </c>
-      <c r="Y29">
-        <v>1.25</v>
-      </c>
-      <c r="Z29">
-        <v>2.87</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
         <v>0</v>
       </c>
     </row>
